--- a/测试选择.xlsx
+++ b/测试选择.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13140"/>
+    <workbookView windowWidth="28695" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15590,10 +15590,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -15611,6 +15611,45 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -15618,9 +15657,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15634,44 +15701,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15692,9 +15722,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15709,46 +15739,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15769,7 +15769,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15781,175 +15943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15994,11 +15994,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16012,17 +16042,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16042,26 +16072,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16076,21 +16091,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -16099,10 +16099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16111,133 +16111,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16362,48 +16362,6 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>468</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>5534660</xdr:colOff>
-      <xdr:row>471</xdr:row>
-      <xdr:rowOff>895985</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="155562300"/>
-          <a:ext cx="5534660" cy="1667510"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>518</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -16462,7 +16420,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3" r:link="rId2"/>
+        <a:blip r:embed="rId1" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16828,8 +16786,8 @@
   <sheetPr/>
   <dimension ref="A1:A874"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A860" workbookViewId="0">
+      <selection activeCell="D392" sqref="D392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/测试选择.xlsx
+++ b/测试选择.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12720"/>
+    <workbookView windowWidth="28695" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15590,10 +15590,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -15611,45 +15611,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -15657,37 +15618,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15701,7 +15634,44 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15722,9 +15692,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15739,16 +15709,46 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -15769,7 +15769,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15781,13 +15895,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15799,7 +15925,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15811,145 +15943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -15994,6 +15994,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -16010,34 +16028,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16057,26 +16057,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -16091,6 +16076,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -16099,10 +16099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -16111,133 +16111,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -16362,6 +16362,48 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>468</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5534660</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>895985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="155562300"/>
+          <a:ext cx="5534660" cy="1667510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>518</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -16420,7 +16462,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:blip r:embed="rId3" r:link="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -16786,8 +16828,8 @@
   <sheetPr/>
   <dimension ref="A1:A874"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A860" workbookViewId="0">
-      <selection activeCell="D392" sqref="D392"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
